--- a/AAA-Luban-Excel/Datas/item_Food.xlsx
+++ b/AAA-Luban-Excel/Datas/item_Food.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="17370" windowHeight="9285"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
   <si>
     <t>##var</t>
   </si>
@@ -41,6 +41,9 @@
     <t>DESCRIBE</t>
   </si>
   <si>
+    <t>prefabName</t>
+  </si>
+  <si>
     <t>maxStackCount</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
     <t>描述</t>
   </si>
   <si>
+    <t>预制体名称</t>
+  </si>
+  <si>
     <t>最大数量，食品类物品在达到最大数量后，</t>
   </si>
   <si>
@@ -101,6 +107,9 @@
     <t>虽然保质期已磨损，但是是校园里为数不多的干净水源，恢复35点水份值。</t>
   </si>
   <si>
+    <t>water</t>
+  </si>
+  <si>
     <t>35</t>
   </si>
   <si>
@@ -116,10 +125,16 @@
     <t>几辈子也等不到过期的食品，装载了美味预制菜，恢复35点饱腹度。</t>
   </si>
   <si>
+    <t>tin</t>
+  </si>
+  <si>
     <t>蝌蚪汽水</t>
   </si>
   <si>
     <t>冒泡的饮料，喝一口，好快乐！同时恢复15点水份值和饱腹度以及1点San值。</t>
+  </si>
+  <si>
+    <t>cola</t>
   </si>
 </sst>
 </file>
@@ -1059,27 +1074,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
+    <col min="1" max="1" width="5.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1"/>
     <col min="3" max="3" width="16.3333333333333" style="1" customWidth="1"/>
     <col min="4" max="4" width="89.1333333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="36.2666666666667" style="1" customWidth="1"/>
-    <col min="6" max="6" width="28.2666666666667" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.8666666666667" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.1333333333333" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7333333333333" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9" style="1"/>
+    <col min="5" max="5" width="11.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="28.2666666666667" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.8666666666667" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1333333333333" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7333333333333" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1095,7 +1112,7 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -1113,188 +1130,209 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="H2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="4" ht="67.05" customHeight="1" spans="1:6">
+    <row r="4" ht="67.05" customHeight="1" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="F4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:12">
       <c r="B5" s="1">
         <v>200001</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="1">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="1">
         <v>9</v>
       </c>
-      <c r="F5" s="1">
-        <v>1001</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>24</v>
+      <c r="G5" s="1">
+        <v>900001</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:12">
       <c r="B6" s="1">
         <v>200002</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="1">
+        <v>9</v>
+      </c>
+      <c r="G6" s="1">
+        <v>900001</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="J6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="1">
-        <v>9</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1001</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="K6" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:12">
       <c r="B7" s="1">
         <v>200003</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="1">
+        <v>34</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="1">
         <v>9</v>
       </c>
-      <c r="F7" s="1">
-        <v>1001</v>
-      </c>
       <c r="G7" s="1">
-        <v>15</v>
+        <v>900001</v>
       </c>
       <c r="H7" s="1">
         <v>15</v>
       </c>
       <c r="I7" s="1">
+        <v>15</v>
+      </c>
+      <c r="J7" s="1">
         <v>1</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="1">
+      <c r="K7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" s="1">
         <v>1</v>
       </c>
     </row>

--- a/AAA-Luban-Excel/Datas/item_Food.xlsx
+++ b/AAA-Luban-Excel/Datas/item_Food.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Project\Project-A\AAA-Luban-Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6FECC6-A4B0-47D6-8225-9BF7D4C1A060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D52075-30F5-4F16-86BA-4E0CEC0F5532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="105" yWindow="885" windowWidth="23685" windowHeight="14265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2055" yWindow="1230" windowWidth="23685" windowHeight="14265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="43">
   <si>
     <t>##var</t>
   </si>
@@ -140,6 +140,15 @@
   </si>
   <si>
     <t>Icon_Food_cola</t>
+  </si>
+  <si>
+    <t>测试食物</t>
+  </si>
+  <si>
+    <t>Icon_Food_TestItem</t>
+  </si>
+  <si>
+    <t>Food_TestFood</t>
   </si>
 </sst>
 </file>
@@ -457,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -469,7 +478,7 @@
     <col min="2" max="2" width="9" style="1"/>
     <col min="3" max="3" width="16.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="89.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="28.28515625" style="1" customWidth="1"/>
     <col min="8" max="8" width="16.85546875" style="1" customWidth="1"/>
@@ -625,16 +634,16 @@
     </row>
     <row r="5" spans="1:14">
       <c r="B5" s="1">
-        <v>200001</v>
+        <v>200000</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>25</v>
+        <v>40</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F5" s="1">
         <v>9</v>
@@ -642,38 +651,38 @@
       <c r="G5" s="1">
         <v>900001</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>28</v>
+      <c r="H5" s="1">
+        <v>100</v>
+      </c>
+      <c r="I5" s="1">
+        <v>100</v>
+      </c>
+      <c r="J5" s="1">
+        <v>100</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
       </c>
       <c r="M5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14">
       <c r="B6" s="1">
-        <v>200002</v>
+        <v>200001</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6" s="1">
         <v>9</v>
@@ -682,10 +691,10 @@
         <v>900001</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>27</v>
@@ -697,22 +706,22 @@
         <v>28</v>
       </c>
       <c r="M6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14">
       <c r="B7" s="1">
-        <v>200003</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>31</v>
+        <v>200002</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7" s="1">
         <v>9</v>
@@ -720,25 +729,63 @@
       <c r="G7" s="1">
         <v>900001</v>
       </c>
-      <c r="H7" s="1">
-        <v>15</v>
-      </c>
-      <c r="I7" s="1">
-        <v>15</v>
-      </c>
-      <c r="J7" s="1">
-        <v>1</v>
+      <c r="H7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="B8" s="1">
+        <v>200003</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="1">
+        <v>9</v>
+      </c>
+      <c r="G8" s="1">
+        <v>900001</v>
+      </c>
+      <c r="H8" s="1">
+        <v>15</v>
+      </c>
+      <c r="I8" s="1">
+        <v>15</v>
+      </c>
+      <c r="J8" s="1">
         <v>1</v>
       </c>
-      <c r="M7" t="s">
+      <c r="K8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
+      <c r="M8" t="s">
         <v>39</v>
       </c>
-      <c r="N7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAA-Luban-Excel/Datas/item_Food.xlsx
+++ b/AAA-Luban-Excel/Datas/item_Food.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Project\Project-A\AAA-Luban-Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D52075-30F5-4F16-86BA-4E0CEC0F5532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C91DB7E-F658-43AA-8A94-88A31D25A287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2055" yWindow="1230" windowWidth="23685" windowHeight="14265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8565" yWindow="1005" windowWidth="19110" windowHeight="14265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
   <si>
     <t>##var</t>
   </si>
@@ -34,9 +34,6 @@
     <t>DESCRIBE</t>
   </si>
   <si>
-    <t>prefabName</t>
-  </si>
-  <si>
     <t>maxStackCount</t>
   </si>
   <si>
@@ -85,21 +82,12 @@
     <t>描述</t>
   </si>
   <si>
-    <t>预制体名称</t>
-  </si>
-  <si>
     <t>最大数量，食品类物品在达到最大数量后，</t>
   </si>
   <si>
     <t>当这个物品在地上时，玩家与其的交互是哪一种</t>
   </si>
   <si>
-    <t>瓶装水</t>
-  </si>
-  <si>
-    <t>虽然保质期已磨损，但是是校园里为数不多的干净水源，恢复35点水份值。</t>
-  </si>
-  <si>
     <t>35</t>
   </si>
   <si>
@@ -109,27 +97,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>罐头</t>
-  </si>
-  <si>
-    <t>几辈子也等不到过期的食品，装载了美味预制菜，恢复35点饱腹度。</t>
-  </si>
-  <si>
-    <t>蝌蚪汽水</t>
-  </si>
-  <si>
-    <t>冒泡的饮料，喝一口，好快乐！同时恢复15点水份值和饱腹度以及1点San值。</t>
-  </si>
-  <si>
-    <t>Food_water</t>
-  </si>
-  <si>
-    <t>Food_tin</t>
-  </si>
-  <si>
-    <t>Food_cola</t>
-  </si>
-  <si>
     <t>IconName</t>
   </si>
   <si>
@@ -142,13 +109,28 @@
     <t>Icon_Food_cola</t>
   </si>
   <si>
-    <t>测试食物</t>
-  </si>
-  <si>
     <t>Icon_Food_TestItem</t>
   </si>
   <si>
-    <t>Food_TestFood</t>
+    <t>ItemImageName</t>
+  </si>
+  <si>
+    <t>Sprite_Food_TestItem</t>
+  </si>
+  <si>
+    <t>Sprite_Food_water</t>
+  </si>
+  <si>
+    <t>Sprite_Food_tin</t>
+  </si>
+  <si>
+    <t>Sprite_Food_cola</t>
+  </si>
+  <si>
+    <t>道具栏小图标图片名</t>
+  </si>
+  <si>
+    <t>道具物品渲染图片</t>
   </si>
 </sst>
 </file>
@@ -186,7 +168,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -198,6 +180,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -466,29 +451,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="16.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="89.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="28.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9" style="1"/>
+    <col min="3" max="3" width="12.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="1"/>
+    <col min="12" max="12" width="25.140625" customWidth="1"/>
+    <col min="13" max="13" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="30">
+    <row r="1" spans="1:13" ht="30">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -504,7 +490,7 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -523,133 +509,136 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="30">
+      <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="30">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="B2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="M2" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="30">
+      <c r="A3" s="2" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="30">
-      <c r="A3" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="67.150000000000006" customHeight="1">
+      <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>16</v>
+      <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="67.150000000000006" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:13" ht="30">
       <c r="B5" s="1">
         <v>200000</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>42</v>
+      <c r="C5" s="1">
+        <v>700000</v>
+      </c>
+      <c r="D5" s="4">
+        <v>800000</v>
+      </c>
+      <c r="E5" s="1">
+        <v>9</v>
       </c>
       <c r="F5" s="1">
-        <v>9</v>
+        <v>900001</v>
       </c>
       <c r="G5" s="1">
-        <v>900001</v>
+        <v>100</v>
       </c>
       <c r="H5" s="1">
         <v>100</v>
@@ -658,133 +647,130 @@
         <v>100</v>
       </c>
       <c r="J5" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
         <v>1</v>
       </c>
-      <c r="M5" t="s">
-        <v>41</v>
-      </c>
-      <c r="N5" s="1"/>
+      <c r="L5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:13">
       <c r="B6" s="1">
         <v>200001</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="4">
+        <v>700001</v>
+      </c>
+      <c r="D6" s="4">
+        <v>800001</v>
+      </c>
+      <c r="E6" s="1">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1">
+        <v>900001</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="1">
-        <v>9</v>
-      </c>
-      <c r="G6" s="1">
-        <v>900001</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="L6" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M6" t="s">
-        <v>37</v>
-      </c>
-      <c r="N6" s="1"/>
+      <c r="M6" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:13">
       <c r="B7" s="1">
         <v>200002</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>34</v>
+      <c r="C7" s="4">
+        <v>700002</v>
+      </c>
+      <c r="D7" s="4">
+        <v>800002</v>
+      </c>
+      <c r="E7" s="1">
+        <v>9</v>
       </c>
       <c r="F7" s="1">
-        <v>9</v>
-      </c>
-      <c r="G7" s="1">
         <v>900001</v>
       </c>
+      <c r="G7" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="H7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M7" t="s">
-        <v>38</v>
-      </c>
-      <c r="N7" s="1"/>
+      <c r="M7" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:13">
       <c r="B8" s="1">
         <v>200003</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>35</v>
+      <c r="C8" s="4">
+        <v>700003</v>
+      </c>
+      <c r="D8" s="4">
+        <v>800003</v>
+      </c>
+      <c r="E8" s="1">
+        <v>9</v>
       </c>
       <c r="F8" s="1">
-        <v>9</v>
+        <v>900001</v>
       </c>
       <c r="G8" s="1">
-        <v>900001</v>
+        <v>15</v>
       </c>
       <c r="H8" s="1">
         <v>15</v>
       </c>
       <c r="I8" s="1">
-        <v>15</v>
-      </c>
-      <c r="J8" s="1">
         <v>1</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L8" s="1">
+      <c r="J8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="1">
         <v>1</v>
       </c>
-      <c r="M8" t="s">
-        <v>39</v>
+      <c r="L8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/AAA-Luban-Excel/Datas/item_Food.xlsx
+++ b/AAA-Luban-Excel/Datas/item_Food.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Project\Project-A\AAA-Luban-Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C91DB7E-F658-43AA-8A94-88A31D25A287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E90FE2-9809-451A-ACF2-8F0E349FD3C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8565" yWindow="1005" windowWidth="19110" windowHeight="14265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1980" yWindow="495" windowWidth="24660" windowHeight="14265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
   <si>
     <t>##var</t>
   </si>
@@ -100,37 +100,43 @@
     <t>IconName</t>
   </si>
   <si>
-    <t>Icon_Food_water</t>
-  </si>
-  <si>
-    <t>Icon_Food_tin</t>
-  </si>
-  <si>
-    <t>Icon_Food_cola</t>
-  </si>
-  <si>
-    <t>Icon_Food_TestItem</t>
-  </si>
-  <si>
-    <t>ItemImageName</t>
-  </si>
-  <si>
-    <t>Sprite_Food_TestItem</t>
-  </si>
-  <si>
-    <t>Sprite_Food_water</t>
-  </si>
-  <si>
-    <t>Sprite_Food_tin</t>
-  </si>
-  <si>
-    <t>Sprite_Food_cola</t>
-  </si>
-  <si>
     <t>道具栏小图标图片名</t>
   </si>
   <si>
     <t>道具物品渲染图片</t>
+  </si>
+  <si>
+    <t>SpriteName</t>
+  </si>
+  <si>
+    <t>PrefabName</t>
+  </si>
+  <si>
+    <t>P_Item_Food</t>
+  </si>
+  <si>
+    <t>Icon_Item_Food_TestItem</t>
+  </si>
+  <si>
+    <t>Icon_Item_Food_water</t>
+  </si>
+  <si>
+    <t>Icon_Item_Food_tin</t>
+  </si>
+  <si>
+    <t>Icon_Item_Food_cola</t>
+  </si>
+  <si>
+    <t>Sprite_Item_Food_TestItem</t>
+  </si>
+  <si>
+    <t>Sprite_Item_Food_water</t>
+  </si>
+  <si>
+    <t>Sprite_Item_Food_tin</t>
+  </si>
+  <si>
+    <t>Sprite_Item_Food_cola</t>
   </si>
 </sst>
 </file>
@@ -451,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -472,9 +478,10 @@
     <col min="11" max="11" width="9" style="1"/>
     <col min="12" max="12" width="25.140625" customWidth="1"/>
     <col min="13" max="13" width="25.5703125" customWidth="1"/>
+    <col min="14" max="14" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30">
+    <row r="1" spans="1:14" ht="30">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -512,10 +519,13 @@
         <v>25</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="30">
+    <row r="2" spans="1:14" ht="30">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -555,8 +565,11 @@
       <c r="M2" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="N2" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" ht="30">
+    <row r="3" spans="1:14" ht="30">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -594,8 +607,11 @@
       <c r="M3" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="N3" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" ht="67.150000000000006" customHeight="1">
+    <row r="4" spans="1:14" ht="67.150000000000006" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -615,13 +631,13 @@
         <v>21</v>
       </c>
       <c r="L4" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="M4" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="30">
+    <row r="5" spans="1:14" ht="30">
       <c r="B5" s="1">
         <v>200000</v>
       </c>
@@ -653,13 +669,16 @@
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
+      </c>
+      <c r="N5" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="B6" s="1">
         <v>200001</v>
       </c>
@@ -691,13 +710,16 @@
         <v>24</v>
       </c>
       <c r="L6" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
+      </c>
+      <c r="N6" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="B7" s="1">
         <v>200002</v>
       </c>
@@ -729,13 +751,16 @@
         <v>24</v>
       </c>
       <c r="L7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
+      </c>
+      <c r="N7" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="B8" s="1">
         <v>200003</v>
       </c>
@@ -767,10 +792,13 @@
         <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
+      </c>
+      <c r="N8" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/AAA-Luban-Excel/Datas/item_Food.xlsx
+++ b/AAA-Luban-Excel/Datas/item_Food.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Project\Project-A\AAA-Luban-Excel\Datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E90FE2-9809-451A-ACF2-8F0E349FD3C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="495" windowWidth="24660" windowHeight="14265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -55,6 +62,15 @@
     <t>Weight</t>
   </si>
   <si>
+    <t>IconName</t>
+  </si>
+  <si>
+    <t>SpriteName</t>
+  </si>
+  <si>
+    <t>PrefabName</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -88,6 +104,21 @@
     <t>当这个物品在地上时，玩家与其的交互是哪一种</t>
   </si>
   <si>
+    <t>道具栏小图标图片名</t>
+  </si>
+  <si>
+    <t>道具物品渲染图片</t>
+  </si>
+  <si>
+    <t>Icon_Item_Food_TestItem</t>
+  </si>
+  <si>
+    <t>Sprite_Item_Food_TestItem</t>
+  </si>
+  <si>
+    <t>P_Item_Food</t>
+  </si>
+  <si>
     <t>35</t>
   </si>
   <si>
@@ -97,43 +128,19 @@
     <t>1</t>
   </si>
   <si>
-    <t>IconName</t>
-  </si>
-  <si>
-    <t>道具栏小图标图片名</t>
-  </si>
-  <si>
-    <t>道具物品渲染图片</t>
-  </si>
-  <si>
-    <t>SpriteName</t>
-  </si>
-  <si>
-    <t>PrefabName</t>
-  </si>
-  <si>
-    <t>P_Item_Food</t>
-  </si>
-  <si>
-    <t>Icon_Item_Food_TestItem</t>
-  </si>
-  <si>
     <t>Icon_Item_Food_water</t>
   </si>
   <si>
+    <t>Sprite_Item_Food_water</t>
+  </si>
+  <si>
     <t>Icon_Item_Food_tin</t>
   </si>
   <si>
+    <t>Sprite_Item_Food_tin</t>
+  </si>
+  <si>
     <t>Icon_Item_Food_cola</t>
-  </si>
-  <si>
-    <t>Sprite_Item_Food_TestItem</t>
-  </si>
-  <si>
-    <t>Sprite_Item_Food_water</t>
-  </si>
-  <si>
-    <t>Sprite_Item_Food_tin</t>
   </si>
   <si>
     <t>Sprite_Item_Food_cola</t>
@@ -142,25 +149,361 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -168,9 +511,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -191,17 +776,61 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -451,37 +1080,37 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.56666666666667" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="12.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="28.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7083333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.56666666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.8583333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.2833333333333" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.8583333333333" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1416666666667" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7083333333333" style="1" customWidth="1"/>
     <col min="10" max="10" width="16" style="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="1"/>
-    <col min="12" max="12" width="25.140625" customWidth="1"/>
-    <col min="13" max="13" width="25.5703125" customWidth="1"/>
+    <col min="12" max="12" width="25.1416666666667" customWidth="1"/>
+    <col min="13" max="13" width="25.5666666666667" customWidth="1"/>
     <col min="14" max="14" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="30">
+    <row r="1" ht="27" spans="1:14">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -516,128 +1145,128 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="30">
+    <row r="2" ht="27" spans="1:14">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="30">
+    <row r="3" ht="27" spans="1:14">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="67.150000000000006" customHeight="1">
+    <row r="4" ht="67.15" customHeight="1" spans="1:13">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" t="s">
         <v>26</v>
       </c>
-      <c r="M4" t="s">
-        <v>27</v>
-      </c>
     </row>
-    <row r="5" spans="1:14" ht="30">
+    <row r="5" ht="27" spans="2:14">
       <c r="B5" s="1">
         <v>200000</v>
       </c>
@@ -669,16 +1298,16 @@
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="2:14">
       <c r="B6" s="1">
         <v>200001</v>
       </c>
@@ -695,31 +1324,31 @@
         <v>900001</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="2:14">
       <c r="B7" s="1">
         <v>200002</v>
       </c>
@@ -736,31 +1365,31 @@
         <v>900001</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="2:14">
       <c r="B8" s="1">
         <v>200003</v>
       </c>
@@ -786,23 +1415,24 @@
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="K8" s="1">
         <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>38</v>
       </c>
       <c r="N8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/AAA-Luban-Excel/Datas/item_Food.xlsx
+++ b/AAA-Luban-Excel/Datas/item_Food.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="47">
   <si>
     <t>##var</t>
   </si>
@@ -56,7 +56,10 @@
     <t>SanGain</t>
   </si>
   <si>
-    <t>StatusGain</t>
+    <t>buffID</t>
+  </si>
+  <si>
+    <t>time</t>
   </si>
   <si>
     <t>Weight</t>
@@ -77,6 +80,9 @@
     <t>int</t>
   </si>
   <si>
+    <t>float</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
@@ -102,6 +108,24 @@
   </si>
   <si>
     <t>当这个物品在地上时，玩家与其的交互是哪一种</t>
+  </si>
+  <si>
+    <t>提供多少水份值</t>
+  </si>
+  <si>
+    <t>提供多少饱腹度</t>
+  </si>
+  <si>
+    <t>提供多少San值</t>
+  </si>
+  <si>
+    <t>食用后提供哪一种buff</t>
+  </si>
+  <si>
+    <t>buff持续多久</t>
+  </si>
+  <si>
+    <t>重量</t>
   </si>
   <si>
     <t>道具栏小图标图片名</t>
@@ -1086,10 +1110,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -1104,13 +1128,13 @@
     <col min="8" max="8" width="15.1416666666667" style="1" customWidth="1"/>
     <col min="9" max="9" width="11.7083333333333" style="1" customWidth="1"/>
     <col min="10" max="10" width="16" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9" style="1"/>
-    <col min="12" max="12" width="25.1416666666667" customWidth="1"/>
-    <col min="13" max="13" width="25.5666666666667" customWidth="1"/>
-    <col min="14" max="14" width="16" customWidth="1"/>
+    <col min="11" max="12" width="9" style="1"/>
+    <col min="13" max="13" width="25.1416666666667" customWidth="1"/>
+    <col min="14" max="14" width="25.5666666666667" customWidth="1"/>
+    <col min="15" max="15" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:14">
+    <row r="1" ht="27" spans="1:15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1153,120 +1177,147 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" ht="27" spans="1:14">
+    <row r="2" ht="27" spans="1:15">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="3" ht="27" spans="1:14">
+    <row r="3" ht="27" spans="1:15">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="4" ht="67.15" customHeight="1" spans="1:13">
+    <row r="4" ht="67.15" customHeight="1" spans="1:14">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="M4" t="s">
-        <v>26</v>
+        <v>33</v>
+      </c>
+      <c r="N4" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="5" ht="27" spans="2:14">
+    <row r="5" ht="27" spans="2:15">
       <c r="B5" s="1">
         <v>200000</v>
       </c>
@@ -1294,20 +1345,21 @@
       <c r="J5" s="1">
         <v>0</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="1"/>
+      <c r="L5" s="1">
         <v>1</v>
       </c>
-      <c r="L5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5" t="s">
-        <v>29</v>
+      <c r="M5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="2:15">
       <c r="B6" s="1">
         <v>200001</v>
       </c>
@@ -1324,31 +1376,31 @@
         <v>900001</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" t="s">
-        <v>33</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N6" t="s">
-        <v>29</v>
+        <v>39</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O6" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="7" spans="2:14">
+    <row r="7" spans="2:15">
       <c r="B7" s="1">
         <v>200002</v>
       </c>
@@ -1365,31 +1417,31 @@
         <v>900001</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" t="s">
-        <v>35</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N7" t="s">
-        <v>29</v>
+        <v>39</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" t="s">
+        <v>43</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O7" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="2:15">
       <c r="B8" s="1">
         <v>200003</v>
       </c>
@@ -1415,19 +1467,19 @@
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" s="1">
+        <v>39</v>
+      </c>
+      <c r="L8" s="1">
         <v>1</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
+        <v>45</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O8" t="s">
         <v>37</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N8" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/AAA-Luban-Excel/Datas/item_Food.xlsx
+++ b/AAA-Luban-Excel/Datas/item_Food.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="25590" windowHeight="11200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1113,28 +1113,28 @@
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="5.56666666666667" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.56363636363636" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="12.7083333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.56666666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.8583333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="28.2833333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.8583333333333" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.1416666666667" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7083333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7090909090909" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.56363636363636" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.8545454545455" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.2818181818182" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.8545454545455" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1454545454545" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7090909090909" style="1" customWidth="1"/>
     <col min="10" max="10" width="16" style="1" customWidth="1"/>
     <col min="11" max="12" width="9" style="1"/>
-    <col min="13" max="13" width="25.1416666666667" customWidth="1"/>
-    <col min="14" max="14" width="25.5666666666667" customWidth="1"/>
+    <col min="13" max="13" width="25.1454545454545" customWidth="1"/>
+    <col min="14" max="14" width="25.5636363636364" customWidth="1"/>
     <col min="15" max="15" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:15">
+    <row r="1" ht="28" spans="1:15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" ht="27" spans="1:15">
+    <row r="2" ht="28" spans="1:15">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" ht="27" spans="1:15">
+    <row r="3" ht="28" spans="1:15">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" ht="27" spans="2:15">
+    <row r="5" ht="28" spans="2:15">
       <c r="B5" s="1">
         <v>200000</v>
       </c>

--- a/AAA-Luban-Excel/Datas/item_Food.xlsx
+++ b/AAA-Luban-Excel/Datas/item_Food.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25590" windowHeight="11200"/>
+    <workbookView windowWidth="28185" windowHeight="6270"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="51">
   <si>
     <t>##var</t>
   </si>
@@ -134,6 +134,9 @@
     <t>道具物品渲染图片</t>
   </si>
   <si>
+    <t>测试物品</t>
+  </si>
+  <si>
     <t>Icon_Item_Food_TestItem</t>
   </si>
   <si>
@@ -143,6 +146,9 @@
     <t>P_Item_Food</t>
   </si>
   <si>
+    <t>瓶装氷</t>
+  </si>
+  <si>
     <t>35</t>
   </si>
   <si>
@@ -158,10 +164,16 @@
     <t>Sprite_Item_Food_water</t>
   </si>
   <si>
+    <t>罐头</t>
+  </si>
+  <si>
     <t>Icon_Item_Food_tin</t>
   </si>
   <si>
     <t>Sprite_Item_Food_tin</t>
+  </si>
+  <si>
+    <t>可乐</t>
   </si>
   <si>
     <t>Icon_Item_Food_cola</t>
@@ -1110,31 +1122,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="5.56363636363636" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.56666666666667" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="12.7090909090909" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.56363636363636" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.8545454545455" style="1" customWidth="1"/>
-    <col min="6" max="6" width="28.2818181818182" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.8545454545455" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.1454545454545" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7090909090909" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16" style="1" customWidth="1"/>
-    <col min="11" max="12" width="9" style="1"/>
-    <col min="13" max="13" width="25.1454545454545" customWidth="1"/>
-    <col min="14" max="14" width="25.5636363636364" customWidth="1"/>
-    <col min="15" max="15" width="16" customWidth="1"/>
+    <col min="3" max="3" width="12.7083333333333" style="1" customWidth="1"/>
+    <col min="4" max="5" width="9.56666666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.8583333333333" style="1" customWidth="1"/>
+    <col min="7" max="7" width="28.2833333333333" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.8583333333333" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1416666666667" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7083333333333" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16" style="1" customWidth="1"/>
+    <col min="12" max="13" width="9" style="1"/>
+    <col min="14" max="14" width="25.1416666666667" customWidth="1"/>
+    <col min="15" max="15" width="25.5666666666667" customWidth="1"/>
+    <col min="16" max="16" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28" spans="1:15">
+    <row r="1" ht="27" spans="1:16">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1144,44 +1156,45 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" ht="28" spans="1:15">
+    <row r="2" ht="27" spans="1:16">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -1191,9 +1204,7 @@
       <c r="C2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
@@ -1213,13 +1224,13 @@
         <v>16</v>
       </c>
       <c r="K2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>18</v>
@@ -1227,8 +1238,11 @@
       <c r="O2" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="P2" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="3" ht="28" spans="1:15">
+    <row r="3" ht="27" spans="1:16">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -1236,9 +1250,7 @@
       <c r="C3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
         <v>20</v>
       </c>
@@ -1272,8 +1284,11 @@
       <c r="O3" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="P3" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="4" ht="67.15" customHeight="1" spans="1:14">
+    <row r="4" ht="67.15" customHeight="1" spans="1:15">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
@@ -1283,58 +1298,59 @@
       <c r="C4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>33</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" ht="28" spans="2:15">
+    <row r="5" ht="27" spans="2:16">
       <c r="B5" s="1">
         <v>200000</v>
       </c>
       <c r="C5" s="1">
         <v>700000</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="4">
         <v>800000</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>9</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>900001</v>
-      </c>
-      <c r="G5" s="1">
-        <v>100</v>
       </c>
       <c r="H5" s="1">
         <v>100</v>
@@ -1343,143 +1359,155 @@
         <v>100</v>
       </c>
       <c r="J5" s="1">
+        <v>100</v>
+      </c>
+      <c r="K5" s="1">
         <v>0</v>
       </c>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1">
+      <c r="L5" s="1"/>
+      <c r="M5" s="1">
         <v>1</v>
       </c>
-      <c r="M5" t="s">
-        <v>35</v>
-      </c>
-      <c r="N5" s="1" t="s">
+      <c r="N5" t="s">
         <v>36</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="P5" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="6" spans="2:15">
+    <row r="6" spans="2:16">
       <c r="B6" s="1">
         <v>200001</v>
       </c>
       <c r="C6" s="4">
         <v>700001</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="4">
         <v>800001</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>9</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>900001</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N6" t="s">
+        <v>43</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P6" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M6" t="s">
-        <v>41</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O6" t="s">
-        <v>37</v>
-      </c>
     </row>
-    <row r="7" spans="2:15">
+    <row r="7" spans="2:16">
       <c r="B7" s="1">
         <v>200002</v>
       </c>
       <c r="C7" s="4">
         <v>700002</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="4">
         <v>800002</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>9</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>900001</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="H7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N7" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P7" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M7" t="s">
-        <v>43</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="O7" t="s">
-        <v>37</v>
-      </c>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="2:16">
       <c r="B8" s="1">
         <v>200003</v>
       </c>
       <c r="C8" s="4">
         <v>700003</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="4">
         <v>800003</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>9</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>900001</v>
-      </c>
-      <c r="G8" s="1">
-        <v>15</v>
       </c>
       <c r="H8" s="1">
         <v>15</v>
       </c>
       <c r="I8" s="1">
+        <v>15</v>
+      </c>
+      <c r="J8" s="1">
         <v>1</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L8" s="1">
+      <c r="K8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8" s="1">
         <v>1</v>
       </c>
-      <c r="M8" t="s">
-        <v>45</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="O8" t="s">
-        <v>37</v>
+      <c r="N8" t="s">
+        <v>49</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P8" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/AAA-Luban-Excel/Datas/item_Food.xlsx
+++ b/AAA-Luban-Excel/Datas/item_Food.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28185" windowHeight="6270"/>
+    <workbookView windowWidth="27765" windowHeight="8625"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="51">
   <si>
     <t>##var</t>
   </si>
@@ -1125,7 +1125,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -1246,7 +1246,9 @@
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="C3" s="3" t="s">
         <v>20</v>
       </c>

--- a/AAA-Luban-Excel/Datas/item_Food.xlsx
+++ b/AAA-Luban-Excel/Datas/item_Food.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Project\Project-A\AAA-Luban-Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587B5ABA-B88F-4933-AAED-A890BA14A43D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F13CC7D7-0206-49D3-884E-7A2E1DD471B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1485" yWindow="750" windowWidth="24855" windowHeight="14985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="54">
   <si>
     <t>##var</t>
   </si>
@@ -133,9 +133,6 @@
     <t>Sprite_Item_Food_TestItem</t>
   </si>
   <si>
-    <t>P_Item_Food</t>
-  </si>
-  <si>
     <t>瓶装氷</t>
   </si>
   <si>
@@ -173,6 +170,18 @@
   </si>
   <si>
     <t>buffTime</t>
+  </si>
+  <si>
+    <t>P_Item_Food_TestFood</t>
+  </si>
+  <si>
+    <t>P_Item_Food_water</t>
+  </si>
+  <si>
+    <t>P_Item_Food_tin</t>
+  </si>
+  <si>
+    <t>P_Item_Food_cola</t>
   </si>
 </sst>
 </file>
@@ -495,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -513,8 +522,8 @@
     <col min="11" max="11" width="16" style="1" customWidth="1"/>
     <col min="12" max="13" width="9" style="1"/>
     <col min="14" max="14" width="25.140625" customWidth="1"/>
-    <col min="15" max="15" width="25.5703125" customWidth="1"/>
-    <col min="16" max="16" width="16" customWidth="1"/>
+    <col min="15" max="15" width="34.140625" customWidth="1"/>
+    <col min="16" max="16" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="30">
@@ -550,7 +559,7 @@
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>10</v>
@@ -747,7 +756,7 @@
         <v>36</v>
       </c>
       <c r="P5" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -758,7 +767,7 @@
         <v>700001</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6" s="4">
         <v>800001</v>
@@ -770,28 +779,28 @@
         <v>900001</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M6" s="1" t="s">
+      <c r="N6" t="s">
         <v>41</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="O6" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="P6" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -802,7 +811,7 @@
         <v>700002</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" s="4">
         <v>800002</v>
@@ -814,28 +823,28 @@
         <v>900001</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="N7" t="s">
+        <v>44</v>
+      </c>
+      <c r="O7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="O7" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="P7" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -846,7 +855,7 @@
         <v>700003</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" s="4">
         <v>800003</v>
@@ -867,19 +876,19 @@
         <v>1</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M8" s="1">
         <v>1</v>
       </c>
       <c r="N8" t="s">
+        <v>47</v>
+      </c>
+      <c r="O8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="O8" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="P8" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/AAA-Luban-Excel/Datas/item_Food.xlsx
+++ b/AAA-Luban-Excel/Datas/item_Food.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Project\Project-A\AAA-Luban-Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F13CC7D7-0206-49D3-884E-7A2E1DD471B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2052CBE-CF89-4E7A-B45F-0DD77C21B8AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1890" yWindow="1785" windowWidth="25500" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -505,7 +505,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -715,7 +715,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="30">
+    <row r="5" spans="1:16">
       <c r="B5" s="1">
         <v>200000</v>
       </c>
